--- a/Hardware/Basic/Top/NotSoSmartWatch-BASIC-TOP-BOM.xlsx
+++ b/Hardware/Basic/Top/NotSoSmartWatch-BASIC-TOP-BOM.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\Arduino\libraries\NotSoSmartWatch\Hardware\Basic\Top\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C467ED8-53E8-4E66-9E77-413E74084A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11328" yWindow="5136" windowWidth="11712" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -225,211 +233,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4414EC97-401B-5C4D-BF38-03085F1F044A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{42ADFC76-2A16-3F4B-9937-20E1DF8DC9D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{92578C3E-17AC-CF40-B33B-C67DBD723ACA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B87F5F84-059E-824D-B1C3-C6D21A6C0FC3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8D3ED184-945A-F444-9885-2E4FC0FBB6A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="189">
   <si>
     <t>BOM #</t>
   </si>
@@ -470,18 +279,12 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Price per unit</t>
   </si>
   <si>
-    <t>10k resistor</t>
-  </si>
-  <si>
     <t>0603</t>
   </si>
   <si>
@@ -491,18 +294,6 @@
     <t>Stackpole Electronics Inc</t>
   </si>
   <si>
-    <t>1uF capacitor</t>
-  </si>
-  <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>Photoresistor</t>
-  </si>
-  <si>
-    <t>9V Battery Connector</t>
-  </si>
-  <si>
     <t>1µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -515,105 +306,517 @@
     <t>Per 100</t>
   </si>
   <si>
-    <t>White  LED Indication - Discrete 2.9V Radial</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
-    <t>Radial</t>
-  </si>
-  <si>
-    <t>American Bright Optoelectronics Corporation</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02-ND</t>
-  </si>
-  <si>
-    <t>White LED</t>
-  </si>
-  <si>
-    <t>Battery Connector, Snap 9V 1 Cell Wire Leads - 4" (101.6mm)</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>81-4</t>
-  </si>
-  <si>
-    <t>36-81-4-ND</t>
-  </si>
-  <si>
-    <t>9V</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit  8-SOIC</t>
-  </si>
-  <si>
-    <t>8-SOIC</t>
-  </si>
-  <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
-    <t>OP1</t>
-  </si>
-  <si>
     <t>Total (in Bulk)</t>
   </si>
   <si>
-    <t>CDS Cell 520nm 27 ~ 60kOhms @ 10 lux</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Advanced Photonix</t>
-  </si>
-  <si>
-    <t>PDV-P8104</t>
-  </si>
-  <si>
-    <t>PDV-P8104-ND</t>
-  </si>
-  <si>
     <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
     <t>RMCF0603FT10K0</t>
   </si>
   <si>
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer or Organization Name</t>
+    <t>NotSoSmartWatch Top Board -- Rev A / Thomas Davis</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Debugger</t>
+  </si>
+  <si>
+    <t>DEBUG1</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>USB Interface</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Header Pins - 2</t>
+  </si>
+  <si>
+    <t>CHRG</t>
+  </si>
+  <si>
+    <t>LDO1</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>Bluetooth Bluetooth v4.2 Transceiver Module 2.4GHz Integrated, Chip Surface Mount</t>
+  </si>
+  <si>
+    <t>41-SMD Module</t>
+  </si>
+  <si>
+    <t>Seeed Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>317030213</t>
+  </si>
+  <si>
+    <t>1597-1434-ND</t>
+  </si>
+  <si>
+    <t>Datasheet 128x64 OLED Module SPI 0.96"Graphic Displays,White on Black</t>
+  </si>
+  <si>
+    <t>Flexible Connector</t>
+  </si>
+  <si>
+    <t>EastRising</t>
+  </si>
+  <si>
+    <t>https://www.buydisplay.com/datasheet-128x64-oled-module-spi-0-96-inch-graphic-displays-white-on-black</t>
+  </si>
+  <si>
+    <t>BuyDisplay.com</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC  1 Output  300mA SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>MIC5504-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>576-4764-1-ND</t>
+  </si>
+  <si>
+    <t>Charger IC Lithium-Ion/Polymer SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OTCT-ND</t>
+  </si>
+  <si>
+    <t>USB - micro B USB 2.0 Receptacle Connector 5 Position Surface Mount, Right Angle</t>
+  </si>
+  <si>
+    <t>Flange, Horizontal</t>
+  </si>
+  <si>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>10118192-0001LF</t>
+  </si>
+  <si>
+    <t>609-4613-1-ND</t>
+  </si>
+  <si>
+    <t>USB Bridge, USB to UART USB 2.0 UART Interface 20-SSOP</t>
+  </si>
+  <si>
+    <t>20-SSOP</t>
+  </si>
+  <si>
+    <t>FTDI, Future Technology Devices International Ltd</t>
+  </si>
+  <si>
+    <t>FT231XS-U</t>
+  </si>
+  <si>
+    <t>768-1156-5-ND</t>
+  </si>
+  <si>
+    <t>SW3, SW4</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t>Gull Wing</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS645SM43SMTR92 LFS</t>
+  </si>
+  <si>
+    <t>CKN9112CT-ND</t>
+  </si>
+  <si>
+    <t>Bigger Button</t>
+  </si>
+  <si>
+    <t>SW1, RESET</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>Diode Schottky 30V 1.5A Surface Mount USC</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Toshiba Semiconductor and Storage</t>
+  </si>
+  <si>
+    <t>CUS15S30,H3F</t>
+  </si>
+  <si>
+    <t>CUS15S30H3FCT-ND</t>
+  </si>
+  <si>
+    <t>D1, D2, D3</t>
+  </si>
+  <si>
+    <t>100 nF Capacitor</t>
+  </si>
+  <si>
+    <t>0.1µF ±5% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1776-1-ND</t>
+  </si>
+  <si>
+    <t>2.2u capacitor</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A225KO8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1040-1-ND</t>
+  </si>
+  <si>
+    <t>C16, C17, C18, C19, C20</t>
+  </si>
+  <si>
+    <t>10 uF 0603 Capacitor</t>
+  </si>
+  <si>
+    <t>10µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69J</t>
+  </si>
+  <si>
+    <t>490-14372-1-ND</t>
+  </si>
+  <si>
+    <t>390 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FG390K</t>
+  </si>
+  <si>
+    <t>RMCF0603FG390KCT-ND</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>47 pF Capacitor</t>
+  </si>
+  <si>
+    <t>47pF ±5% 50V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Walsin Technology Corporation</t>
+  </si>
+  <si>
+    <t>0603N470J500CT</t>
+  </si>
+  <si>
+    <t>1292-1528-1-ND</t>
+  </si>
+  <si>
+    <t>C12, C13</t>
+  </si>
+  <si>
+    <t>C11, C14</t>
+  </si>
+  <si>
+    <t>27 ohm resistor</t>
+  </si>
+  <si>
+    <t>27 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27R0</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27R0CT-ND</t>
+  </si>
+  <si>
+    <t>R11, R12</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>Yellow LED</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>Red 622nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Inolux</t>
+  </si>
+  <si>
+    <t>IN-S63ATR</t>
+  </si>
+  <si>
+    <t>1830-1065-1-ND</t>
+  </si>
+  <si>
+    <t>Yellow 590nm LED Indication - Discrete 2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Wurth Electronics Inc.</t>
+  </si>
+  <si>
+    <t>150060YS75000</t>
+  </si>
+  <si>
+    <t>732-4981-1-ND</t>
+  </si>
+  <si>
+    <t>Blue LED</t>
+  </si>
+  <si>
+    <t>Blue 470nm LED Indication - Discrete 3V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>IN-S63AT5B</t>
+  </si>
+  <si>
+    <t>1830-1061-1-ND</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED1, LED3</t>
+  </si>
+  <si>
+    <t>R4, R5, R14, R16</t>
+  </si>
+  <si>
+    <t>XTAL1</t>
+  </si>
+  <si>
+    <t>32.768 kHz Crystal</t>
+  </si>
+  <si>
+    <t>32.768kHz ±10ppm Crystal 12.5pF 90 kOhms 2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>ECS-.327-12.5-12-C-TR</t>
+  </si>
+  <si>
+    <t>XC2288CT-ND</t>
+  </si>
+  <si>
+    <t>C3, C4</t>
+  </si>
+  <si>
+    <t>12 pF Capacitor</t>
+  </si>
+  <si>
+    <t>12pF ±5% 50V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>0603N120J500CT</t>
+  </si>
+  <si>
+    <t>1292-1480-1-ND</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 10 position 0.050" (1.27mm)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>20021111-00010T4LF</t>
+  </si>
+  <si>
+    <t>609-3712-ND</t>
+  </si>
+  <si>
+    <t>C2, C15</t>
+  </si>
+  <si>
+    <t>1 uF Capacitor</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>C1, C8, C9</t>
+  </si>
+  <si>
+    <t>4.7 uF Capacitor</t>
+  </si>
+  <si>
+    <t>C5, C7</t>
+  </si>
+  <si>
+    <t>10 uH Inductor</t>
+  </si>
+  <si>
+    <t>10µH Shielded Multilayer Inductor 250mA 1.05Ohm 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>MLZ1608M100WTD25</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1784-1-ND</t>
+  </si>
+  <si>
+    <t>1k ohm Resistor</t>
+  </si>
+  <si>
+    <t>100k ohm Resistor</t>
+  </si>
+  <si>
+    <t>10k ohm Resistor</t>
+  </si>
+  <si>
+    <t>390k ohm resistor</t>
+  </si>
+  <si>
+    <t>R3, R7, R8, R9</t>
+  </si>
+  <si>
+    <t>4.7 uF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>100 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100KCT-ND</t>
+  </si>
+  <si>
+    <t>R1, R2, R6, R10, R13</t>
+  </si>
+  <si>
+    <t>CONN_07-1.27MM (CONN_07)</t>
+  </si>
+  <si>
+    <t>50 Position Header Connector 0.050" (1.27mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>LPPB501NFFN-RC</t>
+  </si>
+  <si>
+    <t>S9008E-50-ND</t>
+  </si>
+  <si>
+    <t>Tiny Rectangular Switch</t>
+  </si>
+  <si>
+    <t>C&amp;K Components</t>
+  </si>
+  <si>
+    <t>PTS830GM140 SMTR LFS</t>
+  </si>
+  <si>
+    <t>CKN10587CT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,14 +887,30 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI Historic"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,8 +929,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -771,6 +996,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -856,7 +1096,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -893,6 +1133,31 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1314,32 +1579,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" style="1"/>
+    <col min="12" max="12" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="3" customFormat="1" ht="15">
       <c r="A1" s="12" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1352,21 +1617,21 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="6">
-        <f>SUM(M3:M77)</f>
-        <v>2.48</v>
+        <f>SUM(M5:M100)</f>
+        <v>23.845800000000001</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O1" s="6">
-        <f>SUM(O3:O77)</f>
-        <v>1.1271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+        <f>SUM(O5:O100)</f>
+        <v>2.2500999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="2" customFormat="1" ht="11.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1398,313 +1663,1389 @@
         <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <f>1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" customFormat="1" ht="15.6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:44" customFormat="1" ht="10.5" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+    </row>
+    <row r="5" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.1391</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
-        <v>0.1391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="J5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.55000000000000004</v>
+      <c r="K5" s="18">
+        <v>10.1</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.3982</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.3982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M5:M6" si="0">K5*L5</f>
+        <v>10.1</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:44" s="2" customFormat="1" ht="11.4">
       <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.26</v>
+      <c r="J6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="18">
+        <v>2.12</v>
       </c>
       <c r="L6" s="11">
         <v>1</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>2.12</v>
       </c>
       <c r="N6" s="10">
-        <v>9.0899999999999995E-2</v>
+        <v>1.98</v>
       </c>
       <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>9.0899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
+        <f t="shared" ref="O6" si="1">L6*N6</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="2" customFormat="1" ht="11.4">
+      <c r="A7" s="29">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.1</v>
+      <c r="J7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.43</v>
       </c>
       <c r="L7" s="11">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="N7" s="10">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>2.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" ref="M7:M11" si="2">K7*L7</f>
+        <v>0.43</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:44" s="2" customFormat="1" ht="11.4">
       <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.1</v>
+      <c r="J8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.56000000000000005</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="10">
-        <f t="shared" si="0"/>
+      <c r="M8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:44" ht="11.4">
+      <c r="A9" s="29">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" ref="O9" si="3">L9*N9</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="11.4">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:44" ht="11.4">
+      <c r="A11" s="29">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="2"/>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:44" ht="11.4">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" ref="M12:M24" si="4">K12*L12</f>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:44" ht="11.4">
+      <c r="A13" s="29">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="18">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="4"/>
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:44" ht="11.4">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="4"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:44" ht="11.4">
+      <c r="A15" s="29">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="18">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="4"/>
+        <v>0.15800000000000003</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:44" ht="11.4">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="18">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="4"/>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="11.4">
+      <c r="A17" s="29">
+        <v>13</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="4"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="11.4">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="4"/>
+        <v>1.18E-2</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="11.4">
+      <c r="A19" s="29">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="4"/>
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="11.4">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="4"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="11.4">
+      <c r="A21" s="29">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="11.4">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="4"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="11.4">
+      <c r="A23" s="29">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="4"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="11.4">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="4"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="11.4">
+      <c r="A25" s="29">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="28">
+        <v>0.69</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <f t="shared" ref="M25:M31" si="5">K25*L25</f>
+        <v>0.69</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" ht="11.4">
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="18">
         <v>0.1</v>
       </c>
-      <c r="N8" s="10">
+      <c r="L26" s="2">
+        <v>3</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N26" s="18">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="O8" s="10">
-        <f>L8*N8</f>
-        <v>1.8499999999999999E-2</v>
-      </c>
+      <c r="O26" s="18">
+        <f t="shared" ref="O26:O27" si="6">L26*N26</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="11.4">
+      <c r="A27" s="29">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0.1346</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="6"/>
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="11.4">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" si="5"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="11.4">
+      <c r="A29" s="29">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="18">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="5"/>
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="11.4">
+      <c r="A30" s="8">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="18">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" si="5"/>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="11.4">
+      <c r="A31" s="29">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
+      <c r="M31" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="11.4">
+      <c r="A32" s="8">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="11.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="11.4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" ht="11.4">
+      <c r="A35" s="29">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Hardware/Basic/Top/NotSoSmartWatch-BASIC-TOP-BOM.xlsx
+++ b/Hardware/Basic/Top/NotSoSmartWatch-BASIC-TOP-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\Arduino\libraries\NotSoSmartWatch\Hardware\Basic\Top\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdav2\Documents\EAGLE\NotSoSmartWatch\Hardware\Basic\Top\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C467ED8-53E8-4E66-9E77-413E74084A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B6572-4C07-4D2B-B26B-38F7087A116E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="5136" windowWidth="11712" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="199">
   <si>
     <t>BOM #</t>
   </si>
@@ -354,9 +354,6 @@
     <t>Voltage Regulator</t>
   </si>
   <si>
-    <t>Header Pins - 2</t>
-  </si>
-  <si>
     <t>CHRG</t>
   </si>
   <si>
@@ -805,6 +802,39 @@
   </si>
   <si>
     <t>CKN10587CT-ND</t>
+  </si>
+  <si>
+    <t>350 mAh LiPo Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7V Lithium Polymer Battery Rechargeable (Secondary) 350mAh</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>JST PH Connector</t>
+  </si>
+  <si>
+    <t>Adafruit Industries LLC</t>
+  </si>
+  <si>
+    <t>1528-4237-ND</t>
+  </si>
+  <si>
+    <t>0 ohm resistor (not sure if needed)</t>
+  </si>
+  <si>
+    <t>0 Ohms Jumper 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>311-0.0GRCT-ND</t>
+  </si>
+  <si>
+    <t>JP1, R17, R18</t>
   </si>
 </sst>
 </file>
@@ -816,7 +846,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -908,6 +938,13 @@
       <sz val="8"/>
       <name val="Segoe UI Historic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1012,7 +1049,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1095,8 +1132,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1125,15 +1163,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1159,8 +1188,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="82" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="83">
+    <cellStyle name="Currency" xfId="82" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1579,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR35"/>
+  <dimension ref="A1:AR36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.199999999999999"/>
@@ -1603,12 +1646,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="3" customFormat="1" ht="15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1620,15 +1663,15 @@
         <v>13</v>
       </c>
       <c r="M1" s="6">
-        <f>SUM(M5:M100)</f>
-        <v>23.845800000000001</v>
+        <f>SUM(M5:M101)</f>
+        <v>29.825800000000001</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O1" s="6">
-        <f>SUM(O5:O100)</f>
-        <v>2.2500999999999998</v>
+        <f>SUM(O5:O101)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="11.4">
@@ -1696,55 +1739,55 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:44" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
     </row>
     <row r="5" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="29">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1753,28 +1796,28 @@
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="18">
+      <c r="K5" s="15">
         <v>10.1</v>
       </c>
       <c r="L5" s="11">
@@ -1797,28 +1840,28 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="K6" s="15">
         <v>2.12</v>
       </c>
       <c r="L6" s="11">
@@ -1828,53 +1871,48 @@
         <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
-      <c r="N6" s="10">
-        <v>1.98</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" ref="O6" si="1">L6*N6</f>
-        <v>1.98</v>
-      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:44" s="2" customFormat="1" ht="11.4">
-      <c r="A7" s="29">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="K7" s="15">
         <v>0.43</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
       </c>
-      <c r="M7" s="18">
-        <f t="shared" ref="M7:M11" si="2">K7*L7</f>
+      <c r="M7" s="15">
+        <f t="shared" ref="M7:M11" si="1">K7*L7</f>
         <v>0.43</v>
       </c>
       <c r="N7" s="10"/>
@@ -1888,174 +1926,169 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>0.56000000000000005</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
       </c>
-      <c r="M8" s="18">
-        <f t="shared" si="2"/>
+      <c r="M8" s="15">
+        <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:44" ht="11.4">
-      <c r="A9" s="29">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>0.11</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="18">
-        <f t="shared" si="2"/>
+      <c r="M9" s="15">
+        <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
-      <c r="N9" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" ref="O9" si="3">L9*N9</f>
-        <v>0.08</v>
-      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:44" ht="11.4">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="K10" s="20">
         <v>0.25</v>
       </c>
       <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="M10" s="18">
-        <f t="shared" si="2"/>
+      <c r="M10" s="15">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:44" ht="11.4">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="J11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="15">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="18">
-        <f t="shared" si="2"/>
+      <c r="M11" s="15">
+        <f t="shared" si="1"/>
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="N11" s="2"/>
@@ -2066,84 +2099,84 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="I12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="27">
+      <c r="K12" s="24">
         <v>0.25600000000000001</v>
       </c>
       <c r="L12" s="2">
         <v>3</v>
       </c>
-      <c r="M12" s="18">
-        <f t="shared" ref="M12:M24" si="4">K12*L12</f>
+      <c r="M12" s="15">
+        <f t="shared" ref="M12:M24" si="2">K12*L12</f>
         <v>0.76800000000000002</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:44" ht="11.4">
-      <c r="A13" s="29">
+      <c r="A13" s="26">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>3.3099999999999997E-2</v>
       </c>
       <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="18">
-        <f t="shared" si="4"/>
+      <c r="M13" s="15">
+        <f t="shared" si="2"/>
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="N13" s="2"/>
@@ -2154,84 +2187,84 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="L14" s="2">
         <v>5</v>
       </c>
-      <c r="M14" s="18">
-        <f t="shared" si="4"/>
+      <c r="M14" s="15">
+        <f t="shared" si="2"/>
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:44" ht="11.4">
-      <c r="A15" s="29">
+      <c r="A15" s="26">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="L15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="18">
-        <f t="shared" si="4"/>
+      <c r="M15" s="15">
+        <f t="shared" si="2"/>
         <v>0.15800000000000003</v>
       </c>
       <c r="N15" s="2"/>
@@ -2242,84 +2275,84 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="I16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>6.3200000000000006E-2</v>
       </c>
       <c r="L16" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="18">
-        <f t="shared" si="4"/>
+      <c r="M16" s="15">
+        <f t="shared" si="2"/>
         <v>0.12640000000000001</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="11.4">
-      <c r="A17" s="29">
+      <c r="A17" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="I17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="L17" s="2">
         <v>2</v>
       </c>
-      <c r="M17" s="18">
-        <f t="shared" si="4"/>
+      <c r="M17" s="15">
+        <f t="shared" si="2"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="N17" s="2"/>
@@ -2330,84 +2363,84 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="L18" s="2">
         <v>2</v>
       </c>
-      <c r="M18" s="18">
-        <f t="shared" si="4"/>
+      <c r="M18" s="15">
+        <f t="shared" si="2"/>
         <v>1.18E-2</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="11.4">
-      <c r="A19" s="29">
+      <c r="A19" s="26">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="I19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="L19" s="2">
         <v>4</v>
       </c>
-      <c r="M19" s="18">
-        <f t="shared" si="4"/>
+      <c r="M19" s="15">
+        <f t="shared" si="2"/>
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="N19" s="2"/>
@@ -2418,84 +2451,84 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="K20" s="15">
         <v>0.17699999999999999</v>
       </c>
       <c r="L20" s="2">
         <v>2</v>
       </c>
-      <c r="M20" s="18">
-        <f t="shared" si="4"/>
+      <c r="M20" s="15">
+        <f t="shared" si="2"/>
         <v>0.35399999999999998</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="11.4">
-      <c r="A21" s="29">
+      <c r="A21" s="26">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="18">
+      <c r="K21" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="18">
-        <f t="shared" si="4"/>
+      <c r="M21" s="15">
+        <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N21" s="2"/>
@@ -2506,84 +2539,84 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="18">
+      <c r="K22" s="15">
         <v>0.17699999999999999</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="18">
-        <f t="shared" si="4"/>
+      <c r="M22" s="15">
+        <f t="shared" si="2"/>
         <v>0.17699999999999999</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="11.4">
-      <c r="A23" s="29">
+      <c r="A23" s="26">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="I23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K23" s="18">
+      <c r="K23" s="15">
         <v>0.59799999999999998</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="18">
-        <f t="shared" si="4"/>
+      <c r="M23" s="15">
+        <f t="shared" si="2"/>
         <v>0.59799999999999998</v>
       </c>
       <c r="N23" s="2"/>
@@ -2594,47 +2627,47 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="18">
+      <c r="J24" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="15">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="L24" s="2">
         <v>2</v>
       </c>
-      <c r="M24" s="18">
-        <f t="shared" si="4"/>
+      <c r="M24" s="15">
+        <f t="shared" si="2"/>
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="11.4">
-      <c r="A25" s="29">
+      <c r="A25" s="26">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2643,35 +2676,35 @@
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="H25" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="I25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" s="28">
+      <c r="K25" s="25">
         <v>0.69</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="18">
-        <f t="shared" ref="M25:M31" si="5">K25*L25</f>
+      <c r="M25" s="15">
+        <f t="shared" ref="M25:M33" si="3">K25*L25</f>
         <v>0.69</v>
       </c>
       <c r="N25" s="10"/>
@@ -2682,182 +2715,172 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="15">
         <v>0.1</v>
       </c>
       <c r="L26" s="2">
         <v>3</v>
       </c>
-      <c r="M26" s="18">
-        <f t="shared" si="5"/>
+      <c r="M26" s="15">
+        <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="N26" s="18">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="O26" s="18">
-        <f t="shared" ref="O26:O27" si="6">L26*N26</f>
-        <v>5.5499999999999994E-2</v>
-      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="1:15" ht="11.4">
-      <c r="A27" s="29">
+      <c r="A27" s="26">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="H27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K27" s="18">
+      <c r="J27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="15">
         <v>0.22</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
       </c>
-      <c r="M27" s="18">
-        <f t="shared" si="5"/>
+      <c r="M27" s="15">
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
-      <c r="N27" s="18">
-        <v>0.1346</v>
-      </c>
-      <c r="O27" s="18">
-        <f t="shared" si="6"/>
-        <v>0.1346</v>
-      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="1:15" ht="11.4">
       <c r="A28" s="8">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="18">
+        <v>168</v>
+      </c>
+      <c r="K28" s="15">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="L28" s="2">
         <v>2</v>
       </c>
-      <c r="M28" s="18">
-        <f t="shared" si="5"/>
+      <c r="M28" s="15">
+        <f t="shared" si="3"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="11.4">
-      <c r="A29" s="29">
+      <c r="A29" s="26">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K29" s="18">
+      <c r="K29" s="15">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="L29" s="2">
         <v>4</v>
       </c>
-      <c r="M29" s="18">
-        <f t="shared" si="5"/>
+      <c r="M29" s="15">
+        <f t="shared" si="3"/>
         <v>2.3599999999999999E-2</v>
       </c>
       <c r="N29" s="2"/>
@@ -2868,82 +2891,82 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="17" t="s">
+      <c r="H30" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="I30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I30" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="18">
+      <c r="K30" s="15">
         <v>5.0599999999999996</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
       </c>
-      <c r="M30" s="18">
-        <f t="shared" si="5"/>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
         <v>5.0599999999999996</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="11.4">
-      <c r="A31" s="29">
+      <c r="A31" s="26">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="H31" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="I31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31" s="23">
+      <c r="K31" s="20">
         <v>0.56999999999999995</v>
       </c>
       <c r="L31" s="2">
         <v>2</v>
       </c>
-      <c r="M31" s="18">
-        <f t="shared" si="5"/>
+      <c r="M31" s="15">
+        <f t="shared" si="3"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="N31" s="2"/>
@@ -2954,98 +2977,163 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="31">
+        <v>4237</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="30">
+        <v>5.95</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="3"/>
+        <v>5.95</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="11.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="A33" s="8">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="31">
+        <v>603</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="11.4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="11.4">
-      <c r="A35" s="29">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" ht="11.4">
+      <c r="A36" s="26">
         <v>29</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="G36" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="10">
+      <c r="J36" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
